--- a/Epidemiología/mortalidad_ministerio/mortalidad_2018_total_epnm.xlsx
+++ b/Epidemiología/mortalidad_ministerio/mortalidad_2018_total_epnm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiologia\mortalidad_ministerio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\mortalidad_ministerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABA6BD-BADC-4DF8-B0EA-6A9D65EB887A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D29A0-471A-437C-B47E-4F53CDE0EA45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10840" windowHeight="17130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,20 +36,6 @@
         <family val="2"/>
       </rPr>
       <t>21/06/2020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Filtros: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Año defunción].[2018], [Causa Muerte CIE].[C18 TUMOR MALIGNO DEL COLON], [Causa Muerte CIE].[C19 TUMOR MALIGNO DE LA UNIÓN RECTOSIGMOIDEA], [Causa Muerte CIE].[C20 TUMOR MALIGNO DEL RECTO], [Causa Muerte CIE].[C21 TUMOR MALIGNO DEL ANO Y DEL CONDUCTO ANAL]</t>
     </r>
   </si>
   <si>
@@ -246,6 +232,20 @@
   </si>
   <si>
     <t>ASR-E new</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Filtros: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Año defunción].[2018], [Causa Muerte CIE]. Total tumores (C00-C97) menos c44</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -883,6 +883,12 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -900,12 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A5" sqref="A5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1279,511 +1279,511 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="10" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="10" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
-    </row>
-    <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>35</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>36</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="13">
         <v>24</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <v>39</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="13">
         <v>58</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <v>83</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="13">
         <v>123</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="13">
         <v>250</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="13">
         <v>557</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="14">
         <v>1089</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="14">
         <v>2504</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="14">
         <v>4572</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="14">
         <v>6469</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="14">
         <v>7880</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="14">
         <v>9747</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="14">
         <v>9141</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="14">
         <v>10273</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="14">
         <v>12730</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="14">
         <v>65610</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4">
         <v>25</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="13">
         <v>25</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="13">
         <v>25</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="13">
         <v>33</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="13">
         <v>33</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="13">
         <v>57</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="13">
         <v>138</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="13">
         <v>310</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="13">
         <v>625</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="14">
         <v>1143</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="14">
         <v>1932</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="14">
         <v>2793</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="14">
         <v>3410</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="14">
         <v>3818</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="14">
         <v>4638</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="14">
         <v>4917</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="14">
         <v>6704</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="14">
         <v>11622</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="14">
         <v>42248</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4">
         <v>60</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="13">
         <v>61</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="13">
         <v>49</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <v>72</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="13">
         <v>91</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="13">
         <v>140</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="13">
         <v>261</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="13">
         <v>560</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="14">
         <v>1182</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="14">
         <v>2232</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="14">
         <v>4436</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="14">
         <v>7365</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="14">
         <v>9879</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="14">
         <v>11698</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="14">
         <v>14385</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="14">
         <v>14058</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="14">
         <v>16977</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="14">
         <v>24352</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="14">
         <v>107858</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-    </row>
-    <row r="20" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="23" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-    </row>
-    <row r="23" spans="1:20" ht="13" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="19"/>
+    </row>
+    <row r="24" spans="1:20" ht="26" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="17"/>
-    </row>
-    <row r="24" spans="1:20" ht="26" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4">
         <v>1071428</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="26" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4">
         <v>1009766</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="27" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4">
         <v>2081194</v>
@@ -1968,44 +1968,44 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="1:20" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-    </row>
-    <row r="30" spans="1:20" ht="13" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
     </row>
     <row r="31" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -2028,7 +2028,7 @@
     <row r="32" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="33" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="7">
         <f>100000*T14/T25</f>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="34" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="7">
         <f t="shared" ref="B34:B35" si="0">100000*T15/T26</f>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="35" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -2133,87 +2133,87 @@
       <c r="P36" s="6"/>
     </row>
     <row r="38" spans="1:20" ht="13" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="17"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:20" ht="26" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="S39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="T39" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
@@ -2280,7 +2280,7 @@
     <row r="42" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="43" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="4">
         <f>B$40*B14/B25</f>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="44" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" ref="B44:Q45" si="2">B$40*B15/B26</f>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="45" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="4">
         <f t="shared" si="2"/>
@@ -2559,87 +2559,87 @@
       <c r="P46" s="6"/>
     </row>
     <row r="48" spans="1:20" ht="13" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="17"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="19"/>
     </row>
     <row r="49" spans="1:20" ht="26" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="R49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="S49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="T49" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="13" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
     <row r="52" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="53" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="4">
         <f>B$50*B14/B25</f>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="54" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="4">
         <f t="shared" ref="B54:Q55" si="4">B$50*B15/B26</f>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="55" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" s="4">
         <f t="shared" si="4"/>
@@ -2967,87 +2967,87 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="13" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="17"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="19"/>
     </row>
     <row r="59" spans="1:20" ht="26" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="N59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="O59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="P59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="Q59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="R59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="S59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="T59" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="13" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
     <row r="62" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="63" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63" s="4">
         <f>B$60*B14/B25</f>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="64" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" s="4">
         <f t="shared" ref="B64:S65" si="6">B$60*B15/B26</f>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="65" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" s="4">
         <f t="shared" si="6"/>
@@ -3398,17 +3398,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:T23"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="A19:O19"/>
-    <mergeCell ref="A20:O20"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A6:O6"/>
     <mergeCell ref="A10:O10"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="B58:T58"/>
@@ -3418,6 +3407,17 @@
     <mergeCell ref="B38:T38"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:T48"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:T23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="A19:O19"/>
+    <mergeCell ref="A20:O20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
